--- a/src/KNNoutput.xlsx
+++ b/src/KNNoutput.xlsx
@@ -626,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>0.0002205320865014053</v>
@@ -643,7 +643,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>0.0005265538575794512</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>0.0002275794872410785</v>
@@ -677,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>0.0004334609946996875</v>
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>0.0003307626513132321</v>

--- a/src/KNNoutput.xlsx
+++ b/src/KNNoutput.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>File</t>
   </si>
@@ -36,21 +36,6 @@
   </si>
   <si>
     <t>CADUSD</t>
-  </si>
-  <si>
-    <t>CHFUSD</t>
-  </si>
-  <si>
-    <t>EURUSD</t>
-  </si>
-  <si>
-    <t>GBPUSD</t>
-  </si>
-  <si>
-    <t>NOKUSD</t>
-  </si>
-  <si>
-    <t>NZDUSD</t>
   </si>
   <si>
     <t>k</t>
@@ -411,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,16 +427,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>0.003054259419377451</v>
+        <v>0.002436731856217181</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>0.03096574122650797</v>
+        <v>0.02419373741082674</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -462,116 +447,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>0.001304603503619515</v>
+        <v>0.001015206499597724</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>0.0283738343828083</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>0.002035899139114068</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>0.03563344849745301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>0.0008998155010154922</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>0.0256892950759889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>0.001491672053538206</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>0.02841494626369528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>0.001890052957891746</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>0.0207402400641757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>0.00313129009518012</v>
-      </c>
-      <c r="E8">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>0.02559629720369872</v>
+        <v>0.02522353856211343</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +466,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -592,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -612,10 +497,10 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>0.0004491935110539938</v>
+        <v>0.0002914936559335332</v>
       </c>
       <c r="E2">
-        <v>0.02028678196753725</v>
+        <v>0.01162937145729539</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -629,95 +514,10 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>0.0002205320865014053</v>
+        <v>0.0001202020507782575</v>
       </c>
       <c r="E3">
-        <v>0.01674491034401766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>0.0005265538575794512</v>
-      </c>
-      <c r="E4">
-        <v>0.02099305703653063</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>0.0002275794872410785</v>
-      </c>
-      <c r="E5">
-        <v>0.01485914178132325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>0.0004334609946996875</v>
-      </c>
-      <c r="E6">
-        <v>0.02239913521722411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>0.0003307626513132321</v>
-      </c>
-      <c r="E7">
-        <v>0.01211990630188213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>0.000453828392993063</v>
-      </c>
-      <c r="E8">
-        <v>0.01557344452717527</v>
+        <v>0.00936052118672338</v>
       </c>
     </row>
   </sheetData>

--- a/src/KNNoutput.xlsx
+++ b/src/KNNoutput.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manolis1\Desktop\FIN580\Homework1\VolatilityForecasting\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="Train results" sheetId="1" r:id="rId1"/>
     <sheet name="Test results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="16">
   <si>
     <t>File</t>
   </si>
@@ -38,14 +43,38 @@
     <t>CADUSD</t>
   </si>
   <si>
+    <t>CHFUSD</t>
+  </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>GBPUSD</t>
+  </si>
+  <si>
+    <t>NOKUSD</t>
+  </si>
+  <si>
+    <t>NZDUSD</t>
+  </si>
+  <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>Basic KNN</t>
+  </si>
+  <si>
+    <t>Time Component</t>
+  </si>
+  <si>
+    <t>0  0.000527</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +137,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -154,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,9 +223,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,6 +258,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,14 +434,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11:R13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +459,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -427,57 +474,652 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>0.002436731856217181</v>
+        <v>3.0542594193774509E-3</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>0.02419373741082674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>3.096574122650797E-2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>2.4367318562171811E-3</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>2.4193737410826741E-2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>4.4900000000000002E-4</v>
+      </c>
+      <c r="L3">
+        <v>2.0286999999999999E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>12</v>
+      </c>
+      <c r="P3">
+        <v>2.9100000000000003E-4</v>
+      </c>
+      <c r="Q3">
+        <v>1.1629E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>0.001015206499597724</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>0.02522353856211343</v>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>1.3046035036195149E-3</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>2.83738343828083E-2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>2.2100000000000001E-4</v>
+      </c>
+      <c r="L4">
+        <v>1.6744999999999999E-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4">
+        <v>1.2E-4</v>
+      </c>
+      <c r="Q4">
+        <v>9.3609999999999995E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1.0152064995977239E-3</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>2.5223538562113429E-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>2.0993000000000001E-2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>2.14E-4</v>
+      </c>
+      <c r="Q5">
+        <v>1.1027E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>2.0358991391140678E-3</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>3.5633448497453007E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>2.2800000000000001E-4</v>
+      </c>
+      <c r="L6">
+        <v>1.4859000000000001E-2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>12</v>
+      </c>
+      <c r="P6">
+        <v>1.92E-4</v>
+      </c>
+      <c r="Q6">
+        <v>1.2617E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>2.010440302613283E-3</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>3.516137991979882E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>4.3300000000000001E-4</v>
+      </c>
+      <c r="L7">
+        <v>2.2398999999999999E-2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7">
+        <v>12</v>
+      </c>
+      <c r="P7">
+        <v>1.8200000000000001E-4</v>
+      </c>
+      <c r="Q7">
+        <v>1.2756999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>8.9981550101549221E-4</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>2.56892950759889E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>3.3100000000000002E-4</v>
+      </c>
+      <c r="L8">
+        <v>1.2120000000000001E-2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <v>2.6600000000000001E-4</v>
+      </c>
+      <c r="Q8">
+        <v>9.8130000000000005E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>7.2247723397791681E-4</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>2.0387347841996379E-2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="L9">
+        <v>1.5573E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9">
+        <v>12</v>
+      </c>
+      <c r="P9">
+        <v>2.9100000000000003E-4</v>
+      </c>
+      <c r="Q9">
+        <v>9.7380000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>1.4916720535382061E-3</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>2.8414946263695281E-2</v>
+      </c>
+      <c r="K10">
+        <f>SUM(K3:K9)</f>
+        <v>2.1160000000000003E-3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:Q10" si="0">SUM(L3:L9)</f>
+        <v>0.122976</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>1.5560000000000001E-3</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>7.6941999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>1.1634604015535711E-3</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>2.148760308440803E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>1.8900529578917461E-3</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>2.07402400641757E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>1.6203685255767009E-3</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>1.6392863848872459E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>3.13129009518012E-3</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>2.5596297203698722E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>2.5357573151245471E-3</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>2.0405084672663529E-2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>2.4367318562171811E-3</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>2.4193737410826741E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>1.0152064995977239E-3</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>2.5223538562113429E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>2.010440302613283E-3</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>3.516137991979882E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>7.2247723397791681E-4</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <v>2.0387347841996379E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>1.1634604015535711E-3</v>
+      </c>
+      <c r="L20">
+        <v>20</v>
+      </c>
+      <c r="M20">
+        <v>2.148760308440803E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>1.6203685255767009E-3</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>1.6392863848872459E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22">
+        <v>19</v>
+      </c>
+      <c r="K22">
+        <v>2.5357573151245471E-3</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>2.0405084672663529E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -486,7 +1128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -497,27 +1139,231 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>0.0002914936559335332</v>
+        <v>4.4919351105399379E-4</v>
       </c>
       <c r="E2">
-        <v>0.01162937145729539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>2.0286781967537248E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>4.4919351105399379E-4</v>
+      </c>
+      <c r="E3">
+        <v>2.0286781967537248E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>0.0001202020507782575</v>
-      </c>
-      <c r="E3">
-        <v>0.00936052118672338</v>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>2.205320865014053E-4</v>
+      </c>
+      <c r="E4">
+        <v>1.674491034401766E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>2.205320865014053E-4</v>
+      </c>
+      <c r="E5">
+        <v>1.674491034401766E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>5.2655385757945116E-4</v>
+      </c>
+      <c r="E6">
+        <v>2.0993057036530632E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>5.2655385757945116E-4</v>
+      </c>
+      <c r="E7">
+        <v>2.0993057036530632E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>2.2757948724107851E-4</v>
+      </c>
+      <c r="E8">
+        <v>1.485914178132325E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>2.2757948724107851E-4</v>
+      </c>
+      <c r="E9">
+        <v>1.485914178132325E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>4.3346099469968751E-4</v>
+      </c>
+      <c r="E10">
+        <v>2.2399135217224111E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>4.3346099469968751E-4</v>
+      </c>
+      <c r="E11">
+        <v>2.2399135217224111E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>3.307626513132321E-4</v>
+      </c>
+      <c r="E12">
+        <v>1.211990630188213E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>3.307626513132321E-4</v>
+      </c>
+      <c r="E13">
+        <v>1.211990630188213E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>4.5382839299306298E-4</v>
+      </c>
+      <c r="E14">
+        <v>1.5573444527175269E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>4.5382839299306298E-4</v>
+      </c>
+      <c r="E15">
+        <v>1.5573444527175269E-2</v>
       </c>
     </row>
   </sheetData>
